--- a/Jogos_do_Dia/2023-09-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>League</t>
   </si>
@@ -119,12 +119,27 @@
   </si>
   <si>
     <t>Odds_Corners_Over115</t>
+  </si>
+  <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Guarani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,11 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,6 +605,113 @@
         <v>34</v>
       </c>
     </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>2.37</v>
+      </c>
+      <c r="H2">
+        <v>3.08</v>
+      </c>
+      <c r="I2">
+        <v>3.25</v>
+      </c>
+      <c r="J2">
+        <v>1.11</v>
+      </c>
+      <c r="K2">
+        <v>6.5</v>
+      </c>
+      <c r="L2">
+        <v>1.5</v>
+      </c>
+      <c r="M2">
+        <v>2.45</v>
+      </c>
+      <c r="N2">
+        <v>2.55</v>
+      </c>
+      <c r="O2">
+        <v>1.47</v>
+      </c>
+      <c r="P2">
+        <v>1.57</v>
+      </c>
+      <c r="Q2">
+        <v>2.25</v>
+      </c>
+      <c r="R2">
+        <v>2.1</v>
+      </c>
+      <c r="S2">
+        <v>1.68</v>
+      </c>
+      <c r="T2">
+        <v>1.28</v>
+      </c>
+      <c r="U2">
+        <v>1.33</v>
+      </c>
+      <c r="V2">
+        <v>1.55</v>
+      </c>
+      <c r="W2">
+        <v>1.08</v>
+      </c>
+      <c r="X2">
+        <v>1.15</v>
+      </c>
+      <c r="Y2">
+        <v>1.48</v>
+      </c>
+      <c r="Z2">
+        <v>1.18</v>
+      </c>
+      <c r="AA2">
+        <v>2.66</v>
+      </c>
+      <c r="AB2">
+        <v>1.62</v>
+      </c>
+      <c r="AC2">
+        <v>7.5</v>
+      </c>
+      <c r="AD2">
+        <v>2.88</v>
+      </c>
+      <c r="AE2">
+        <v>1.17</v>
+      </c>
+      <c r="AF2">
+        <v>1.33</v>
+      </c>
+      <c r="AG2">
+        <v>1.56</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>2.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jogos_do_Dia/2023-09-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>League</t>
   </si>
@@ -121,13 +121,25 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>Netherlands Eerste Divisie</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>05:30:00</t>
+  </si>
+  <si>
     <t>21:30:00</t>
   </si>
   <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
   </si>
   <si>
     <t>Guarani</t>
@@ -492,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,102 +625,209 @@
         <v>45174</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="H2">
-        <v>3.08</v>
+        <v>4</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1.02</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1.22</v>
+      </c>
+      <c r="M2">
+        <v>3.8</v>
+      </c>
+      <c r="N2">
+        <v>1.7</v>
+      </c>
+      <c r="O2">
+        <v>2.1</v>
+      </c>
+      <c r="P2">
+        <v>1.33</v>
+      </c>
+      <c r="Q2">
         <v>3.25</v>
       </c>
-      <c r="J2">
-        <v>1.11</v>
-      </c>
-      <c r="K2">
-        <v>6.5</v>
-      </c>
-      <c r="L2">
+      <c r="R2">
+        <v>1.67</v>
+      </c>
+      <c r="S2">
+        <v>2.1</v>
+      </c>
+      <c r="T2">
+        <v>1.24</v>
+      </c>
+      <c r="U2">
+        <v>1.26</v>
+      </c>
+      <c r="V2">
+        <v>1.99</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
+        <v>2.08</v>
+      </c>
+      <c r="Z2">
+        <v>1.68</v>
+      </c>
+      <c r="AA2">
+        <v>3.76</v>
+      </c>
+      <c r="AB2">
         <v>1.5</v>
-      </c>
-      <c r="M2">
-        <v>2.45</v>
-      </c>
-      <c r="N2">
-        <v>2.55</v>
-      </c>
-      <c r="O2">
-        <v>1.47</v>
-      </c>
-      <c r="P2">
-        <v>1.57</v>
-      </c>
-      <c r="Q2">
-        <v>2.25</v>
-      </c>
-      <c r="R2">
-        <v>2.1</v>
-      </c>
-      <c r="S2">
-        <v>1.68</v>
-      </c>
-      <c r="T2">
-        <v>1.28</v>
-      </c>
-      <c r="U2">
-        <v>1.33</v>
-      </c>
-      <c r="V2">
-        <v>1.55</v>
-      </c>
-      <c r="W2">
-        <v>1.08</v>
-      </c>
-      <c r="X2">
-        <v>1.15</v>
-      </c>
-      <c r="Y2">
-        <v>1.48</v>
-      </c>
-      <c r="Z2">
-        <v>1.18</v>
-      </c>
-      <c r="AA2">
-        <v>2.66</v>
-      </c>
-      <c r="AB2">
-        <v>1.62</v>
       </c>
       <c r="AC2">
         <v>7.5</v>
       </c>
       <c r="AD2">
+        <v>3.3</v>
+      </c>
+      <c r="AE2">
+        <v>1.18</v>
+      </c>
+      <c r="AF2">
+        <v>1.34</v>
+      </c>
+      <c r="AG2">
+        <v>1.61</v>
+      </c>
+      <c r="AH2">
+        <v>2.02</v>
+      </c>
+      <c r="AI2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>2.2</v>
+      </c>
+      <c r="H3">
+        <v>2.9</v>
+      </c>
+      <c r="I3">
+        <v>3.03</v>
+      </c>
+      <c r="J3">
+        <v>1.11</v>
+      </c>
+      <c r="K3">
+        <v>6.5</v>
+      </c>
+      <c r="L3">
+        <v>1.59</v>
+      </c>
+      <c r="M3">
+        <v>2.23</v>
+      </c>
+      <c r="N3">
+        <v>2.56</v>
+      </c>
+      <c r="O3">
+        <v>1.45</v>
+      </c>
+      <c r="P3">
+        <v>1.57</v>
+      </c>
+      <c r="Q3">
+        <v>2.25</v>
+      </c>
+      <c r="R3">
+        <v>2.1</v>
+      </c>
+      <c r="S3">
+        <v>1.68</v>
+      </c>
+      <c r="T3">
+        <v>1.28</v>
+      </c>
+      <c r="U3">
+        <v>1.33</v>
+      </c>
+      <c r="V3">
+        <v>1.55</v>
+      </c>
+      <c r="W3">
+        <v>1.08</v>
+      </c>
+      <c r="X3">
+        <v>1.15</v>
+      </c>
+      <c r="Y3">
+        <v>1.48</v>
+      </c>
+      <c r="Z3">
+        <v>1.18</v>
+      </c>
+      <c r="AA3">
+        <v>2.66</v>
+      </c>
+      <c r="AB3">
+        <v>1.62</v>
+      </c>
+      <c r="AC3">
+        <v>7.5</v>
+      </c>
+      <c r="AD3">
         <v>2.88</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>1.17</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>1.33</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>1.56</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>2</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>2.42</v>
       </c>
     </row>
